--- a/clienti_excel.xlsx
+++ b/clienti_excel.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitol\Desktop\ep-v1-gestionale\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355EE658-8E38-4DBB-B912-1F83F7C62064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>type</t>
   </si>
@@ -58,16 +54,22 @@
     <t>province</t>
   </si>
   <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>robertaagnello@virgilio.it</t>
+  </si>
+  <si>
+    <t>ROBERTA</t>
+  </si>
+  <si>
     <t>AGNELLO</t>
   </si>
   <si>
-    <t>ROBERTA</t>
-  </si>
-  <si>
     <t>GNLRRT85S45I754M</t>
   </si>
   <si>
-    <t>robertaagnello@virgilio.it</t>
+    <t xml:space="preserve">VIA AMENDOLA TRAV.5 156</t>
   </si>
   <si>
     <t>BARI</t>
@@ -76,160 +78,193 @@
     <t>BA</t>
   </si>
   <si>
+    <t>graziaanaclerio88@gmail.com</t>
+  </si>
+  <si>
+    <t>GRAZIA</t>
+  </si>
+  <si>
     <t>ANACLERIO</t>
   </si>
   <si>
-    <t>GRAZIA</t>
-  </si>
-  <si>
     <t>NCLGRZ88D68A662U</t>
   </si>
   <si>
-    <t>graziaanaclerio88@gmail.com</t>
+    <t xml:space="preserve">VIA NAZIONALE 4</t>
+  </si>
+  <si>
+    <t>rossella.attolini@gmail.com</t>
+  </si>
+  <si>
+    <t>ROSSELLA</t>
   </si>
   <si>
     <t>ATTOLINI</t>
   </si>
   <si>
-    <t>ROSSELLA</t>
-  </si>
-  <si>
     <t>TTLRSL87P50A662I</t>
   </si>
   <si>
-    <t>rossella.attolini@gmail.com</t>
+    <t xml:space="preserve">VIA MICHELANGELO SIGNORILE 34</t>
+  </si>
+  <si>
+    <t>biatia@libero.it</t>
+  </si>
+  <si>
+    <t>VALENTINA</t>
   </si>
   <si>
     <t>BOSCAINO</t>
   </si>
   <si>
-    <t>VALENTINA</t>
-  </si>
-  <si>
     <t>BSCVNT78P42L049B</t>
   </si>
   <si>
-    <t>biatia@libero.it</t>
-  </si>
-  <si>
-    <t>392 422 9235</t>
+    <t xml:space="preserve">392 422 9235</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA FABIO FILZI 3</t>
+  </si>
+  <si>
+    <t>boschetti.lucia@gmail.com</t>
+  </si>
+  <si>
+    <t>LUCIA</t>
   </si>
   <si>
     <t>BOSCHETTI</t>
   </si>
   <si>
-    <t>LUCIA</t>
-  </si>
-  <si>
     <t>BSCLCU86M60I531D</t>
   </si>
   <si>
-    <t>boschetti.lucia@gmail.com</t>
-  </si>
-  <si>
-    <t>389 5474535</t>
+    <t xml:space="preserve">389 5474535</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIAZZA PARTIGIANI D'ITALIA 5</t>
   </si>
   <si>
     <t>BITONTO</t>
   </si>
   <si>
+    <t>miriam.capoccia@alice.it</t>
+  </si>
+  <si>
+    <t>MIRIAM</t>
+  </si>
+  <si>
     <t>CAPOCCIA</t>
   </si>
   <si>
-    <t>MIRIAM</t>
-  </si>
-  <si>
     <t>CPCMRM87M54F262G</t>
   </si>
   <si>
-    <t>miriam.capoccia@alice.it</t>
+    <t xml:space="preserve">VIA SPALATO 2 E</t>
+  </si>
+  <si>
+    <t>mariacaringe@gmail.com</t>
+  </si>
+  <si>
+    <t>MARIA</t>
   </si>
   <si>
     <t>CARINGELLA</t>
   </si>
   <si>
-    <t>MARIA</t>
-  </si>
-  <si>
     <t>CRNMRA83S46L425U</t>
   </si>
   <si>
-    <t>mariacaringe@gmail.com</t>
-  </si>
-  <si>
-    <t>320 274 4051</t>
+    <t xml:space="preserve">320 274 4051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LARGO FRANCESCO CRISPI 2</t>
+  </si>
+  <si>
+    <t>lcasalino87@gmail.com</t>
+  </si>
+  <si>
+    <t>LAURA</t>
   </si>
   <si>
     <t>CASALINO</t>
   </si>
   <si>
-    <t>LAURA</t>
-  </si>
-  <si>
     <t>CSLLRA87L55A662Q</t>
   </si>
   <si>
-    <t>lcasalino87@gmail.com</t>
+    <t xml:space="preserve">VIA BRUNO BUOZZI 94</t>
+  </si>
+  <si>
+    <t>angelachiaracecere@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANGELA CHIARA</t>
   </si>
   <si>
     <t>CECERE</t>
   </si>
   <si>
-    <t>ANGELA CHIARA</t>
-  </si>
-  <si>
     <t>CCNNLC83T59C741P</t>
   </si>
   <si>
-    <t>angelachiaracecere@gmail.com</t>
-  </si>
-  <si>
-    <t>327 467 0268</t>
+    <t xml:space="preserve">327 467 0268</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA CORFU' 10</t>
+  </si>
+  <si>
+    <t>gaiaciafardini@libero.it</t>
+  </si>
+  <si>
+    <t>GAIA</t>
   </si>
   <si>
     <t>CIAFARDINI</t>
   </si>
   <si>
-    <t>GAIA</t>
-  </si>
-  <si>
     <t>CFRGAI91A57A662A</t>
   </si>
   <si>
-    <t>gaiaciafardini@libero.it</t>
-  </si>
-  <si>
-    <t>349 302 6906</t>
+    <t xml:space="preserve">349 302 6906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA PIETRO RAVANAS 350</t>
+  </si>
+  <si>
+    <t>giusyciraci@libero.it</t>
+  </si>
+  <si>
+    <t>GIUSY</t>
   </si>
   <si>
     <t>CIRACI'</t>
   </si>
   <si>
-    <t>GIUSY</t>
-  </si>
-  <si>
     <t>CRCGSY92C52C424Z</t>
   </si>
   <si>
-    <t>giusyciraci@libero.it</t>
-  </si>
-  <si>
-    <t>338 671 0004</t>
+    <t xml:space="preserve">338 671 0004</t>
+  </si>
+  <si>
+    <t>adriana.alice.cat@gmail.com</t>
+  </si>
+  <si>
+    <t>ADRIANA</t>
   </si>
   <si>
     <t>CIVITANO</t>
   </si>
   <si>
-    <t>ADRIANA</t>
-  </si>
-  <si>
     <t>CVTDRN88D52A662E</t>
   </si>
   <si>
-    <t>adriana.alice.cat@gmail.com</t>
-  </si>
-  <si>
-    <t>380 586 7307</t>
+    <t xml:space="preserve">380 586 7307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA ISONZO 176</t>
+  </si>
+  <si>
+    <t>robertacorliano@yahoo.it</t>
   </si>
   <si>
     <t>CORLIANO'</t>
@@ -238,52 +273,64 @@
     <t>CRLRRT87L44C978G</t>
   </si>
   <si>
-    <t>robertacorliano@yahoo.it</t>
+    <t xml:space="preserve">VIA MARIO ADAMO 10</t>
+  </si>
+  <si>
+    <t>dolcique@gmail.com</t>
+  </si>
+  <si>
+    <t>ELENA</t>
   </si>
   <si>
     <t>DAMMACCO</t>
   </si>
   <si>
-    <t>ELENA</t>
-  </si>
-  <si>
     <t>DMMLNE77S52A662O</t>
   </si>
   <si>
-    <t>dolcique@gmail.com</t>
-  </si>
-  <si>
-    <t>348 250 9351</t>
-  </si>
-  <si>
-    <t>DI BARI</t>
-  </si>
-  <si>
-    <t>CARMEN ILARIA</t>
+    <t xml:space="preserve">348 250 9351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIALE JF KENNEDY 89</t>
+  </si>
+  <si>
+    <t>dibariilaria@libero.it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARMEN ILARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI BARI</t>
   </si>
   <si>
     <t>DBRCMN87M42A622Y</t>
   </si>
   <si>
-    <t>dibariilaria@libero.it</t>
-  </si>
-  <si>
-    <t>389 439 1429</t>
-  </si>
-  <si>
-    <t>DI GREGORIO</t>
+    <t xml:space="preserve">389 439 1429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA PASUBIO 175 L</t>
+  </si>
+  <si>
+    <t>digreg.chiara@gmail.com</t>
   </si>
   <si>
     <t>CHIARA</t>
   </si>
   <si>
+    <t xml:space="preserve">DI GREGORIO</t>
+  </si>
+  <si>
     <t>DGRCHR92E64A662A</t>
   </si>
   <si>
-    <t>digreg.chiara@gmail.com</t>
-  </si>
-  <si>
-    <t>340 923 0141</t>
+    <t xml:space="preserve">340 923 0141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA DOMENICO NICOLAI 48</t>
+  </si>
+  <si>
+    <t>diana.giusy@email.it</t>
   </si>
   <si>
     <t>DIANA</t>
@@ -292,55 +339,67 @@
     <t>DNIGSY87R48A662I</t>
   </si>
   <si>
-    <t>diana.giusy@email.it</t>
-  </si>
-  <si>
-    <t>338 163 7108</t>
+    <t xml:space="preserve">338 163 7108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA GOFFREDO MAMELI 4</t>
+  </si>
+  <si>
+    <t>paolaesp@gmail.com</t>
+  </si>
+  <si>
+    <t>PAOLA</t>
   </si>
   <si>
     <t>ESPOSITO</t>
   </si>
   <si>
-    <t>PAOLA</t>
-  </si>
-  <si>
     <t>SPSPLA78B41A662J</t>
   </si>
   <si>
-    <t>paolaesp@gmail.com</t>
-  </si>
-  <si>
-    <t>349 291 4475</t>
+    <t xml:space="preserve">349 291 4475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA BERSAGLIERI 30</t>
+  </si>
+  <si>
+    <t>ettorre25@gmail.com</t>
+  </si>
+  <si>
+    <t>CATERINA</t>
   </si>
   <si>
     <t>ETTORRE</t>
   </si>
   <si>
-    <t>CATERINA</t>
-  </si>
-  <si>
     <t>TTRCRN73L60A055K</t>
   </si>
   <si>
-    <t>ettorre25@gmail.com</t>
+    <t xml:space="preserve">VIA CARLO ALBERTO 11</t>
   </si>
   <si>
     <t>ADELFIA</t>
   </si>
   <si>
+    <t>francesca.filoni@outlook.it</t>
+  </si>
+  <si>
+    <t>FRANCESCA</t>
+  </si>
+  <si>
     <t>FILONI</t>
   </si>
   <si>
-    <t>FRANCESCA</t>
-  </si>
-  <si>
     <t>FLNFNC90T57F842F</t>
   </si>
   <si>
-    <t>francesca.filoni@outlook.it</t>
-  </si>
-  <si>
-    <t>328 033 5037</t>
+    <t xml:space="preserve">328 033 5037</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA DEVITOFRANCESCO 7 A</t>
+  </si>
+  <si>
+    <t>marina89f@gmail.com</t>
   </si>
   <si>
     <t>FIORINO</t>
@@ -349,25 +408,31 @@
     <t>FRNMRA89H41F280I</t>
   </si>
   <si>
-    <t>marina89f@gmail.com</t>
-  </si>
-  <si>
-    <t>327 398 4160</t>
+    <t xml:space="preserve">327 398 4160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA GABRIELI 19</t>
+  </si>
+  <si>
+    <t>gentileantonio@yahoo.it</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
   </si>
   <si>
     <t>GENTILE</t>
   </si>
   <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
     <t>GNTNTN78P18A662A</t>
   </si>
   <si>
-    <t>gentileantonio@yahoo.it</t>
-  </si>
-  <si>
-    <t>348 686 8760</t>
+    <t xml:space="preserve">348 686 8760</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA GIULIO PETRONI  104 M</t>
+  </si>
+  <si>
+    <t>sgentile3916@gmail.com</t>
   </si>
   <si>
     <t>SIMONA</t>
@@ -376,118 +441,142 @@
     <t>GNTSMN86D70A662B</t>
   </si>
   <si>
-    <t>sgentile3916@gmail.com</t>
-  </si>
-  <si>
-    <t>393 048 9436</t>
+    <t xml:space="preserve">393 048 9436</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA PIETRO NENNI 19</t>
   </si>
   <si>
     <t>TRIGGIANO</t>
   </si>
   <si>
+    <t>isabellagernone2000@outlook.it</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
     <t>GERNONE</t>
   </si>
   <si>
-    <t>ISABELLA</t>
-  </si>
-  <si>
     <t>GRNSLL00P46A662E</t>
   </si>
   <si>
-    <t>isabellagernone2000@outlook.it</t>
-  </si>
-  <si>
-    <t>379 160 1181</t>
+    <t xml:space="preserve">379 160 1181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA BRIGATA REGINA 83</t>
+  </si>
+  <si>
+    <t>lovregliogio@gmail.com</t>
+  </si>
+  <si>
+    <t>GIOVANNA</t>
   </si>
   <si>
     <t>LOVREGLIO</t>
   </si>
   <si>
-    <t>GIOVANNA</t>
-  </si>
-  <si>
     <t>LVRGNN95S55A662Y</t>
   </si>
   <si>
-    <t>lovregliogio@gmail.com</t>
-  </si>
-  <si>
-    <t>349 829 0157</t>
+    <t xml:space="preserve">349 829 0157</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA CHIANCARO 2 E</t>
+  </si>
+  <si>
+    <t>mariannamastrangelo153@hotmail.com</t>
+  </si>
+  <si>
+    <t>MARIANNA</t>
   </si>
   <si>
     <t>MASTRANGELO</t>
   </si>
   <si>
-    <t>MARIANNA</t>
-  </si>
-  <si>
     <t>MSTMNN82H45D643X</t>
   </si>
   <si>
-    <t>mariannamastrangelo153@hotmail.com</t>
-  </si>
-  <si>
-    <t>320 845 7349</t>
+    <t xml:space="preserve">320 845 7349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SALANDRA 7</t>
+  </si>
+  <si>
+    <t>francesco.maurelli@hotmail.it</t>
+  </si>
+  <si>
+    <t>FRANCESCO</t>
   </si>
   <si>
     <t>MAURELLI</t>
   </si>
   <si>
-    <t>FRANCESCO</t>
-  </si>
-  <si>
     <t>MRLFNC87S04A662J</t>
   </si>
   <si>
-    <t>francesco.maurelli@hotmail.it</t>
-  </si>
-  <si>
-    <t>333 860 0325</t>
+    <t xml:space="preserve">333 860 0325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STRADELLA SAN PASQUALE 7</t>
+  </si>
+  <si>
+    <t>leomiolli90@gmail.com</t>
+  </si>
+  <si>
+    <t>LEONARDO</t>
   </si>
   <si>
     <t>MIOLLI</t>
   </si>
   <si>
-    <t>LEONARDO</t>
-  </si>
-  <si>
     <t>MLLLRD90A20A662C</t>
   </si>
   <si>
-    <t>leomiolli90@gmail.com</t>
-  </si>
-  <si>
-    <t>345 336 6293</t>
+    <t xml:space="preserve">345 336 6293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA ISONZO 130</t>
+  </si>
+  <si>
+    <t>crescenza.pasciolla@gmail.com</t>
+  </si>
+  <si>
+    <t>CRESCENZA</t>
   </si>
   <si>
     <t>PASCIOLLA</t>
   </si>
   <si>
-    <t>CRESCENZA</t>
-  </si>
-  <si>
     <t>PSCCSC85L71H096F</t>
   </si>
   <si>
-    <t>crescenza.pasciolla@gmail.com</t>
+    <t xml:space="preserve">VIA PRINCIPESSA MARIA 5</t>
   </si>
   <si>
     <t>SAMMICHELE</t>
   </si>
   <si>
+    <t>emanuelapraino@yahoo.it</t>
+  </si>
+  <si>
+    <t>EMANUELA</t>
+  </si>
+  <si>
     <t>PRAINO</t>
   </si>
   <si>
-    <t>EMANUELA</t>
-  </si>
-  <si>
     <t>PRNMNL82E71C002Y</t>
   </si>
   <si>
-    <t>emanuelapraino@yahoo.it</t>
-  </si>
-  <si>
-    <t>340 522 5654</t>
+    <t xml:space="preserve">340 522 5654</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORSO ALCIDE DE GASPERI 413 C</t>
+  </si>
+  <si>
+    <t>lauraricciardi.lr@gmail.com</t>
   </si>
   <si>
     <t>RICCIARDI</t>
@@ -496,85 +585,103 @@
     <t>RCCLRA81E56D643I</t>
   </si>
   <si>
-    <t>lauraricciardi.lr@gmail.com</t>
-  </si>
-  <si>
-    <t>338 113 6972</t>
+    <t xml:space="preserve">338 113 6972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA VALENZANO 70 B</t>
   </si>
   <si>
     <t>CAPURSO</t>
   </si>
   <si>
+    <t>marysalatino@gmail.com</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
     <t>SALATINO</t>
   </si>
   <si>
-    <t>MARY</t>
-  </si>
-  <si>
     <t>SLTMRY80T52A662U</t>
   </si>
   <si>
-    <t>marysalatino@gmail.com</t>
+    <t xml:space="preserve">VIA E. FERMI 22</t>
   </si>
   <si>
     <t>CELLAMARE</t>
   </si>
   <si>
+    <t>luciana.sammarco@libero.it</t>
+  </si>
+  <si>
+    <t>LUCIANA</t>
+  </si>
+  <si>
     <t>SAMMARCO</t>
   </si>
   <si>
-    <t>LUCIANA</t>
-  </si>
-  <si>
     <t>SMMLCN85H64A893G</t>
   </si>
   <si>
-    <t>luciana.sammarco@libero.it</t>
-  </si>
-  <si>
-    <t>329 708 1321</t>
+    <t xml:space="preserve">329 708 1321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA MIMMO CONENNA 40</t>
+  </si>
+  <si>
+    <t>silvia.sansonno@unifg.it</t>
+  </si>
+  <si>
+    <t>SILVIA</t>
   </si>
   <si>
     <t>SANSONNO</t>
   </si>
   <si>
-    <t>SILVIA</t>
-  </si>
-  <si>
     <t>SNSSLV81C45A662S</t>
   </si>
   <si>
-    <t>silvia.sansonno@unifg.it</t>
-  </si>
-  <si>
-    <t>349 667 2181</t>
+    <t xml:space="preserve">349 667 2181</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA NICOLA DE GIOSA 54</t>
+  </si>
+  <si>
+    <t>marinaschiavoni1987@gmail.com</t>
+  </si>
+  <si>
+    <t>MARINA</t>
   </si>
   <si>
     <t>SCHIAVONI</t>
   </si>
   <si>
-    <t>MARINA</t>
-  </si>
-  <si>
     <t>SCHMRN87B43A662X</t>
   </si>
   <si>
-    <t>marinaschiavoni1987@gmail.com</t>
+    <t xml:space="preserve">VIALE ORAZIO FLACCO 23 B</t>
+  </si>
+  <si>
+    <t>elsaschiro89@hotmail.it</t>
+  </si>
+  <si>
+    <t>ELSA</t>
   </si>
   <si>
     <t>SCHIRONE</t>
   </si>
   <si>
-    <t>ELSA</t>
-  </si>
-  <si>
     <t>SCHLSE89E65A662K</t>
   </si>
   <si>
-    <t>elsaschiro89@hotmail.it</t>
-  </si>
-  <si>
-    <t>349 134 0402</t>
+    <t xml:space="preserve">349 134 0402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORSO MAZZINI 144 A</t>
+  </si>
+  <si>
+    <t>mariarosaria.serino@gmail.com</t>
   </si>
   <si>
     <t>SERINO</t>
@@ -583,260 +690,350 @@
     <t>SRNMRA90D43A662E</t>
   </si>
   <si>
-    <t>mariarosaria.serino@gmail.com</t>
+    <t xml:space="preserve">VIA MARIANO SANTO 23</t>
+  </si>
+  <si>
+    <t>institutional</t>
   </si>
   <si>
     <t>amministrazione@cooperativasoleluna.it</t>
   </si>
   <si>
-    <t>080 894 4015</t>
+    <t xml:space="preserve">SOLELUNA SOC.COOP.</t>
+  </si>
+  <si>
+    <t>IT06202460728</t>
+  </si>
+  <si>
+    <t xml:space="preserve">080 894 4015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA TOMMASO FIORE  16</t>
   </si>
   <si>
     <t>BITRITTO</t>
   </si>
   <si>
+    <t>mmsteelsrl@gmail.com</t>
+  </si>
+  <si>
     <t>TISCI</t>
   </si>
   <si>
     <t>TSCMRN96M61L425A</t>
   </si>
   <si>
-    <t>mmsteelsrl@gmail.com</t>
-  </si>
-  <si>
-    <t>380 265 7818</t>
-  </si>
-  <si>
-    <t>parent</t>
-  </si>
-  <si>
-    <t>institutional</t>
-  </si>
-  <si>
-    <t>IT06202460728</t>
-  </si>
-  <si>
-    <t>SOLELUNA SOC.COOP.</t>
-  </si>
-  <si>
-    <t>VIA AMENDOLA TRAV.5 156</t>
-  </si>
-  <si>
-    <t>VIA NAZIONALE 4</t>
-  </si>
-  <si>
-    <t>VIA MICHELANGELO SIGNORILE 34</t>
-  </si>
-  <si>
-    <t>VIA FABIO FILZI 3</t>
-  </si>
-  <si>
-    <t>PIAZZA PARTIGIANI D'ITALIA 5</t>
-  </si>
-  <si>
-    <t>VIA SPALATO 2 E</t>
-  </si>
-  <si>
-    <t>LARGO FRANCESCO CRISPI 2</t>
-  </si>
-  <si>
-    <t>VIA BRUNO BUOZZI 94</t>
-  </si>
-  <si>
-    <t>VIA CORFU' 10</t>
-  </si>
-  <si>
-    <t>VIA PIETRO RAVANAS 350</t>
-  </si>
-  <si>
-    <t>VIA ISONZO 176</t>
-  </si>
-  <si>
-    <t>VIA MARIO ADAMO 10</t>
-  </si>
-  <si>
-    <t>VIALE JF KENNEDY 89</t>
-  </si>
-  <si>
-    <t>VIA PASUBIO 175 L</t>
-  </si>
-  <si>
-    <t>VIA DOMENICO NICOLAI 48</t>
-  </si>
-  <si>
-    <t>VIA GOFFREDO MAMELI 4</t>
-  </si>
-  <si>
-    <t>VIA BERSAGLIERI 30</t>
-  </si>
-  <si>
-    <t>VIA CARLO ALBERTO 11</t>
-  </si>
-  <si>
-    <t>VIA DEVITOFRANCESCO 7 A</t>
-  </si>
-  <si>
-    <t>VIA GABRIELI 19</t>
-  </si>
-  <si>
-    <t>VIA GIULIO PETRONI  104 M</t>
-  </si>
-  <si>
-    <t>VIA PIETRO NENNI 19</t>
-  </si>
-  <si>
-    <t>VIA BRIGATA REGINA 83</t>
-  </si>
-  <si>
-    <t>VIA CHIANCARO 2 E</t>
-  </si>
-  <si>
-    <t>SALANDRA 7</t>
-  </si>
-  <si>
-    <t>STRADELLA SAN PASQUALE 7</t>
-  </si>
-  <si>
-    <t>VIA ISONZO 130</t>
-  </si>
-  <si>
-    <t>VIA PRINCIPESSA MARIA 5</t>
-  </si>
-  <si>
-    <t>CORSO ALCIDE DE GASPERI 413 C</t>
-  </si>
-  <si>
-    <t>VIA VALENZANO 70 B</t>
-  </si>
-  <si>
-    <t>VIA E. FERMI 22</t>
-  </si>
-  <si>
-    <t>VIA MIMMO CONENNA 40</t>
-  </si>
-  <si>
-    <t>VIA NICOLA DE GIOSA 54</t>
-  </si>
-  <si>
-    <t>VIALE ORAZIO FLACCO 23 B</t>
-  </si>
-  <si>
-    <t>CORSO MAZZINI 144 A</t>
-  </si>
-  <si>
-    <t>VIA MARIANO SANTO 23</t>
-  </si>
-  <si>
-    <t>VIA TOMMASO FIORE  16</t>
-  </si>
-  <si>
-    <t>VIA GIOVANNI GENTILE 51 B</t>
+    <t xml:space="preserve">380 265 7818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA GIOVANNI GENTILE 51 B</t>
+  </si>
+  <si>
+    <t>zuly93@msn.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARIA ZULEIKA</t>
+  </si>
+  <si>
+    <t>MASELLI</t>
+  </si>
+  <si>
+    <t>MSLMRA93S68A048P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S.P. ADELFIA-ACQUAVIVA KM.2</t>
+  </si>
+  <si>
+    <t>solanch.bonita@gmail.com</t>
+  </si>
+  <si>
+    <t>SOLANCH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASTRO RIVERA</t>
+  </si>
+  <si>
+    <t>CSTSNC92R68Z504Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA OBERDAN 13</t>
+  </si>
+  <si>
+    <t>erikapaiano@libero.it</t>
+  </si>
+  <si>
+    <t>ERIKA</t>
+  </si>
+  <si>
+    <t>PAIANO</t>
+  </si>
+  <si>
+    <t>PNARKE93P53I119F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA CAIROLI 154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAN PIETRO VERNOTICO</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>graziana.cicorella@libero.it</t>
+  </si>
+  <si>
+    <t>GRAZIANA</t>
+  </si>
+  <si>
+    <t>CICORELLA</t>
+  </si>
+  <si>
+    <t>CCRGZN89E60H096D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA BERGAMO 4 C</t>
+  </si>
+  <si>
+    <t>CONVERSANO</t>
+  </si>
+  <si>
+    <t>cate-achille@hotmail.it</t>
+  </si>
+  <si>
+    <t>ACHILLE</t>
+  </si>
+  <si>
+    <t>CHLMRC06B16F376R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA DE AMICIS 89</t>
+  </si>
+  <si>
+    <t>ANTONELLA</t>
+  </si>
+  <si>
+    <t>LOCAPUTO</t>
+  </si>
+  <si>
+    <t>ylenia_m86@yahoo.it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YLENIA ALESSIA</t>
+  </si>
+  <si>
+    <t>MORTARA</t>
+  </si>
+  <si>
+    <t>MRTYNL86B60A662G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA TENENTE CESARE SUGLIA 46</t>
+  </si>
+  <si>
+    <t>alessandro.dipierro@gmail.com</t>
+  </si>
+  <si>
+    <t>ALESSANDRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DI PIERRO</t>
+  </si>
+  <si>
+    <t>DPRLSN80E01A662Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIALE CADUTI DI TUTTE LE GUERRE 14</t>
+  </si>
+  <si>
+    <t>rossella.tursi@gmail.com</t>
+  </si>
+  <si>
+    <t>TURSI</t>
+  </si>
+  <si>
+    <t>TRSRSL84T44L328Q</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIA ARTURO TOSCANINI 1</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>piero.tavani@gmail.com</t>
+  </si>
+  <si>
+    <t>PIERO</t>
+  </si>
+  <si>
+    <t>TAVANI</t>
+  </si>
+  <si>
+    <t>GIULIA</t>
+  </si>
+  <si>
+    <t>GIOVANNI</t>
+  </si>
+  <si>
+    <t>GUARDAVACCARO</t>
+  </si>
+  <si>
+    <t>ROBERTO</t>
+  </si>
+  <si>
+    <t>ZAMBETTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHIARA STELLA</t>
+  </si>
+  <si>
+    <t>FLORIANA</t>
+  </si>
+  <si>
+    <t>NICASSIO</t>
+  </si>
+  <si>
+    <t>NUNZIA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000\ 000\ 0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
-      <sz val="12"/>
+      <sz val="12.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <sz val="10.000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12.000000"/>
+      <color theme="1" tint="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11.000000"/>
+      <color theme="1" tint="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
+      <color theme="1" tint="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.000000"/>
       <color rgb="FF202124"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.500000"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="5"/>
+        <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="15">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -848,7 +1045,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -894,13 +1091,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -923,19 +1120,18 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -958,7 +1154,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -993,16 +1188,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -1124,9 +1323,226 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -1145,7 +1561,7 @@
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -1164,1299 +1580,1298 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A31" zoomScale="100" workbookViewId="0">
+      <selection activeCell="M34" activeCellId="0" sqref="M34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.75" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" style="1" width="13.625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" style="2" width="34.75"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="14.375"/>
+    <col bestFit="1" customWidth="1" min="4" max="5" style="1" width="19.5"/>
+    <col bestFit="1" customWidth="1" min="6" max="6" style="1" width="27.125"/>
+    <col bestFit="1" customWidth="1" min="7" max="8" style="1" width="10.375"/>
+    <col bestFit="1" customWidth="1" min="9" max="9" style="1" width="29.75"/>
+    <col min="10" max="16384" style="1" width="9.00390625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B2" s="9" t="s">
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3">
         <v>3389505656</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>199</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1">
         <v>70100</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="2">
+        <v>23</v>
+      </c>
+      <c r="H3" s="3">
         <v>3899139135</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>200</v>
+        <v>24</v>
       </c>
       <c r="J3" s="1">
         <v>70128</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B4" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3">
         <v>3391673469</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>201</v>
+        <v>29</v>
       </c>
       <c r="J4" s="1">
         <v>70121</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>29</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>202</v>
+        <v>35</v>
       </c>
       <c r="J5" s="1">
         <v>70126</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>34</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1">
         <v>70032</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="2">
+        <v>46</v>
+      </c>
+      <c r="H7" s="3">
         <v>3939035984</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>204</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1">
         <v>70121</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1">
         <v>70123</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>49</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="2">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3">
         <v>3475095911</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="J9" s="1">
         <v>70132</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>207</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1">
         <v>70121</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>195</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>208</v>
+        <v>70</v>
       </c>
       <c r="J11" s="1">
         <v>70123</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>63</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>205</v>
+        <v>53</v>
       </c>
       <c r="J12" s="1">
         <v>70123</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>195</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>69</v>
+        <v>79</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>209</v>
+        <v>81</v>
       </c>
       <c r="J13" s="1">
         <v>70125</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>72</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="2">
+        <v>84</v>
+      </c>
+      <c r="H14" s="3">
         <v>3517375083</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>210</v>
+        <v>85</v>
       </c>
       <c r="J14" s="1">
         <v>70125</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>195</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>76</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="J15" s="1">
         <v>70124</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>96</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="J16" s="1">
         <v>70124</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>195</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>213</v>
+        <v>103</v>
       </c>
       <c r="J17" s="1">
         <v>70122</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="J18" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" s="6" customFormat="1">
+      <c r="A18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J18" s="8">
         <v>70126</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>95</v>
+      <c r="K18" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>215</v>
+        <v>114</v>
       </c>
       <c r="J19" s="1">
         <v>70126</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>195</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>100</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="2">
+        <v>118</v>
+      </c>
+      <c r="H20" s="3">
         <v>3475788741</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>216</v>
+        <v>119</v>
       </c>
       <c r="J20" s="1">
         <v>70010</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>195</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>105</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>106</v>
+        <v>124</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>217</v>
+        <v>126</v>
       </c>
       <c r="J21" s="1">
         <v>70124</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>195</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>109</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>110</v>
+        <v>129</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>218</v>
+        <v>131</v>
       </c>
       <c r="J22" s="1">
         <v>70125</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>114</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>115</v>
+        <v>135</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>219</v>
+        <v>137</v>
       </c>
       <c r="J23" s="1">
         <v>70124</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>195</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>118</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>141</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="J24" s="1">
         <v>70019</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>195</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>124</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>122</v>
+        <v>145</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>125</v>
+        <v>147</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="J25" s="1">
         <v>70123</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>195</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>129</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>130</v>
+        <v>153</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="J26" s="1">
         <v>70010</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>195</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>134</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>135</v>
+        <v>159</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>223</v>
+        <v>161</v>
       </c>
       <c r="J27" s="1">
         <v>70124</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>139</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>140</v>
+        <v>165</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="J28" s="1">
         <v>70125</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>144</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>145</v>
+        <v>171</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>225</v>
+        <v>173</v>
       </c>
       <c r="J29" s="1">
         <v>70125</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>195</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>149</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>146</v>
+        <v>176</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="H30" s="2">
+        <v>177</v>
+      </c>
+      <c r="H30" s="3">
         <v>3405981684</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>226</v>
+        <v>178</v>
       </c>
       <c r="J30" s="1">
         <v>70010</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>195</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>154</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>152</v>
+        <v>181</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>155</v>
+        <v>183</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>184</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="J31" s="1">
         <v>70126</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>195</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>158</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>159</v>
+        <v>188</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>228</v>
+        <v>190</v>
       </c>
       <c r="J32" s="1">
         <v>70010</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="H33" s="2">
+      <c r="H33" s="3">
         <v>3471532613</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="J33" s="1">
         <v>70010</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>195</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>170</v>
+        <v>200</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>202</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="J34" s="1">
         <v>70126</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>174</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>175</v>
+        <v>207</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="J35" s="1">
         <v>70121</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>179</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="H36" s="2">
+        <v>213</v>
+      </c>
+      <c r="H36" s="3">
         <v>3403038954</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="J36" s="1">
         <v>70124</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>183</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>184</v>
+        <v>218</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="J37" s="1">
         <v>70123</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>187</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>185</v>
+        <v>222</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H38" s="2">
+        <v>223</v>
+      </c>
+      <c r="H38" s="3">
         <v>3463617722</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="J38" s="1">
         <v>70124</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>188</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>226</v>
       </c>
       <c r="D39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>189</v>
+        <v>228</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="J39" s="1">
         <v>70020</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>193</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>194</v>
+        <v>234</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>236</v>
@@ -2465,16 +2880,386 @@
         <v>70126</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" ht="16.5">
+      <c r="A41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3471787118</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J41" s="1">
+        <v>70010</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" ht="16.5">
+      <c r="A42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H42" s="3">
+        <v>3275848902</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J42" s="1">
+        <v>70010</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5">
+      <c r="A43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="H43" s="3">
+        <v>3890496761</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J43" s="1">
+        <v>72027</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" ht="16.5">
+      <c r="A44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3272176476</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="J44" s="1">
+        <v>70014</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" ht="16.5">
+      <c r="A45" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3805966449</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J45" s="1">
+        <v>70014</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" s="11" customFormat="1" ht="16.5">
+      <c r="A46" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="12"/>
+      <c r="C46" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" ht="16.5">
+      <c r="A47" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3294830483</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="J47" s="1">
+        <v>70126</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" ht="16.5">
+      <c r="A48" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3286134018</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J48" s="1">
+        <v>70126</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" ht="16.5">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3346678411</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J49" s="1">
+        <v>70126</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" ht="16.5">
+      <c r="A50" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" ht="16.5">
+      <c r="A51" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5">
+      <c r="A52" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="14"/>
+      <c r="C52" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" ht="16.5">
+      <c r="A53" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="54" ht="16.5">
+      <c r="A54" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="55" ht="16.5">
+      <c r="A55" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" s="14"/>
+      <c r="C55" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="56" ht="16.5">
+      <c r="A56" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="E1:L1 A1:B1" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B41"/>
+    <hyperlink r:id="rId2" ref="B42"/>
+    <hyperlink r:id="rId3" ref="B44"/>
+    <hyperlink r:id="rId4" ref="B45"/>
+    <hyperlink r:id="rId5" ref="B47"/>
+    <hyperlink r:id="rId6" ref="B48"/>
+    <hyperlink r:id="rId7" ref="B49"/>
+    <hyperlink r:id="rId8" ref="B50"/>
+  </hyperlinks>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>